--- a/PermDisclosureData/meta.xlsx
+++ b/PermDisclosureData/meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hatcher/Desktop/STA691/FinalProject/PermDisclosureData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Hatcher\Desktop\STA691\FinalProject\PermDisclosureData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9279776A-E3A3-E64B-9968-96BF669AD72A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AAC01A-27D2-4679-B0A6-B5B4DB9D113B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="440" windowWidth="19200" windowHeight="21160" xr2:uid="{73824AF1-B722-C442-8102-B91FC2ED5286}"/>
+    <workbookView xWindow="19200" yWindow="435" windowWidth="19200" windowHeight="21165" xr2:uid="{73824AF1-B722-C442-8102-B91FC2ED5286}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="130">
   <si>
     <t>CASE_NUMBER</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>numeric</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Names</t>
   </si>
 </sst>
 </file>
@@ -761,1014 +767,1022 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429AE153-2A29-F941-93A0-FDB44591972E}">
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="B39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="B88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="B89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="B90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="B93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="B94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="B95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="B96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="B99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="B101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="B102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="B104" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="B105" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="B106" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="B107" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="B108" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="B109" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="B110" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="B111" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="B112" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="B113" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+      <c r="B114" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="B115" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="B116" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="B117" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="B118" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="B119" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="B120" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
+      <c r="B123" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B123" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="B124" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>123</v>
       </c>
-      <c r="B124" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>124</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>125</v>
       </c>
     </row>

--- a/PermDisclosureData/meta.xlsx
+++ b/PermDisclosureData/meta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Hatcher\Desktop\STA691\FinalProject\PermDisclosureData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Hatcher\Desktop\STA691\STA691FinalProject\PermDisclosureData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AAC01A-27D2-4679-B0A6-B5B4DB9D113B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5316FDD-E2B1-4CDE-9924-FBE35789F01E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="435" windowWidth="19200" windowHeight="21165" xr2:uid="{73824AF1-B722-C442-8102-B91FC2ED5286}"/>
   </bookViews>
@@ -222,15 +222,6 @@
     <t>JI_LIVE_IN_DOM_SVC_CONTRACT</t>
   </si>
   <si>
-    <t>RECR_INFO_PROFESSIONAL_OCC</t>
-  </si>
-  <si>
-    <t>RECR_INFO_COLL_UNIV_TEACHER</t>
-  </si>
-  <si>
-    <t>RECR_INFO_COLL_TEACH_COMP_PROC</t>
-  </si>
-  <si>
     <t>RI_COLL_TCH_BASIC_PROCESS</t>
   </si>
   <si>
@@ -240,54 +231,21 @@
     <t>RI_COLL_TEACH_PRO_JNL</t>
   </si>
   <si>
-    <t>RECR_INFO_SWA_JOB_ORDER_START</t>
-  </si>
-  <si>
-    <t>RECR_INFO_SWA_JOB_ORDER_END</t>
-  </si>
-  <si>
-    <t>RECR_INFO_SUNDAY_NEWSPAPER</t>
-  </si>
-  <si>
     <t>RI_1ST_AD_NEWSPAPER_NAME</t>
   </si>
   <si>
-    <t>RECR_INFO_FIRST_AD_START</t>
-  </si>
-  <si>
     <t>RI_2ND_AD_NEWSPAPER_NAME</t>
   </si>
   <si>
     <t>RI_2ND_AD_NEWSPAPER_OR_JOURNAL</t>
   </si>
   <si>
-    <t>RECR_INFO_SECOND_AD_START</t>
-  </si>
-  <si>
-    <t>RECR_INFO_JOB_FAIR_FROM</t>
-  </si>
-  <si>
-    <t>RECR_INFO_JOB_FAIR_TO</t>
-  </si>
-  <si>
-    <t>RECR_INFO_ON_CAMPUS_RECR_FROM</t>
-  </si>
-  <si>
-    <t>RECR_INFO_ON_CAMPUS_RECR_TO</t>
-  </si>
-  <si>
     <t>RI_EMPLOYER_WEB_POST_FROM</t>
   </si>
   <si>
     <t>RI_EMPLOYER_WEB_POST_TO</t>
   </si>
   <si>
-    <t>RECR_INFO_PRO_ORG_ADVERT_FROM</t>
-  </si>
-  <si>
-    <t>RECR_INFO_PRO_ORG_ADVERT_TO</t>
-  </si>
-  <si>
     <t>RI_JOB_SEARCH_WEBSITE_FROM</t>
   </si>
   <si>
@@ -318,18 +276,6 @@
     <t>RI_LOCAL_ETHNIC_PAPER_TO</t>
   </si>
   <si>
-    <t>RECR_INFO_RADIO_TV_AD_FROM</t>
-  </si>
-  <si>
-    <t>RECR_INFO_RADIO_TV_AD_TO</t>
-  </si>
-  <si>
-    <t>RECR_INFO_EMPLOYER_REC_PAYMENT</t>
-  </si>
-  <si>
-    <t>REC_INFO_BARG_REP_NOTIFIED</t>
-  </si>
-  <si>
     <t>RI_POSTED_NOTICE_AT_WORKSITE</t>
   </si>
   <si>
@@ -415,6 +361,60 @@
   </si>
   <si>
     <t>Names</t>
+  </si>
+  <si>
+    <t>RI_PROFESSIONAL_OCC</t>
+  </si>
+  <si>
+    <t>RI_COLL_UNIV_TEACHER</t>
+  </si>
+  <si>
+    <t>RI_COLL_TEACH_COMP_PROC</t>
+  </si>
+  <si>
+    <t>RI_SWA_JOB_ORDER_START</t>
+  </si>
+  <si>
+    <t>RI_SWA_JOB_ORDER_END</t>
+  </si>
+  <si>
+    <t>RI_SUNDAY_NEWSPAPER</t>
+  </si>
+  <si>
+    <t>RI_FIRST_AD_START</t>
+  </si>
+  <si>
+    <t>RI_SECOND_AD_START</t>
+  </si>
+  <si>
+    <t>RI_JOB_FAIR_FROM</t>
+  </si>
+  <si>
+    <t>RI_JOB_FAIR_TO</t>
+  </si>
+  <si>
+    <t>RI_ON_CAMPUS_RECR_FROM</t>
+  </si>
+  <si>
+    <t>RI_ON_CAMPUS_RECR_TO</t>
+  </si>
+  <si>
+    <t>RI_PRO_ORG_ADVERT_FROM</t>
+  </si>
+  <si>
+    <t>RI_PRO_ORG_ADVERT_TO</t>
+  </si>
+  <si>
+    <t>RI_RADIO_TV_AD_FROM</t>
+  </si>
+  <si>
+    <t>RI_RADIO_TV_AD_TO</t>
+  </si>
+  <si>
+    <t>RI_EMPLOYER_REC_PAYMENT</t>
+  </si>
+  <si>
+    <t>RI_BARG_REP_NOTIFIED</t>
   </si>
 </sst>
 </file>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429AE153-2A29-F941-93A0-FDB44591972E}">
   <dimension ref="A1:B126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -780,10 +780,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -831,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -855,7 +855,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,7 +895,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -903,7 +903,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -911,7 +911,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -919,7 +919,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -935,7 +935,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -951,7 +951,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1007,7 +1007,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1023,7 +1023,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1031,7 +1031,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1047,7 +1047,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1055,7 +1055,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1063,7 +1063,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1071,7 +1071,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1103,7 +1103,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1119,7 +1119,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1143,7 +1143,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1151,7 +1151,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1159,7 +1159,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1175,7 +1175,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1183,7 +1183,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1191,7 +1191,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1207,7 +1207,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1239,7 +1239,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1303,487 +1303,487 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="B77" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="B82" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="B84" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B85" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B86" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="B88" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B89" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B91" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B92" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B93" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B94" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B95" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B97" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B98" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B99" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B100" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B102" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B104" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B105" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B106" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B107" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B109" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B110" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B111" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B112" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B113" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B114" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B117" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B118" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B120" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
